--- a/Resource/excel/Q-签到-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/Q-签到-玩家属性-(框架定义,后端维护).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -274,42 +274,50 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>是否创建</t>
+    <t>签到天数( 7天 )</t>
+  </si>
+  <si>
+    <t>sevenday</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>签到奖励( 7天 )</t>
+  </si>
+  <si>
+    <t>sevenreward</t>
+  </si>
+  <si>
+    <t>签到时间(服务器使用)</t>
+  </si>
+  <si>
+    <t>signintime</t>
+  </si>
+  <si>
+    <t>连续签到次数</t>
+  </si>
+  <si>
+    <t>continuoussignin</t>
+  </si>
+  <si>
+    <t>#signinclass</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Create(int)</t>
+    <t>Shield(int)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>签到天数( 7天 )</t>
-  </si>
-  <si>
-    <t>sevenday</t>
-  </si>
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>签到奖励( 7天 )</t>
-  </si>
-  <si>
-    <t>sevenreward</t>
-  </si>
-  <si>
-    <t>签到时间(服务器使用)</t>
-  </si>
-  <si>
-    <t>signintime</t>
-  </si>
-  <si>
-    <t>连续签到次数</t>
-  </si>
-  <si>
-    <t>continuoussignin</t>
-  </si>
-  <si>
-    <t>#signinclass</t>
+    <t>是否屏蔽创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client(int)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -873,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AL8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -905,18 +913,18 @@
     <col min="28" max="28" width="12.625" style="6" customWidth="1"/>
     <col min="29" max="29" width="14.875" style="6" customWidth="1"/>
     <col min="30" max="31" width="11.5" style="6" customWidth="1"/>
-    <col min="32" max="32" width="10.875" style="6" customWidth="1"/>
-    <col min="33" max="33" width="9.375" style="6" customWidth="1"/>
-    <col min="34" max="34" width="17.125" style="6" customWidth="1"/>
-    <col min="35" max="35" width="21.5" style="6" customWidth="1"/>
-    <col min="36" max="36" width="24.875" style="6" customWidth="1"/>
-    <col min="37" max="37" width="28.75" style="6" customWidth="1"/>
+    <col min="32" max="33" width="10.875" style="6" customWidth="1"/>
+    <col min="34" max="34" width="9.375" style="6" customWidth="1"/>
+    <col min="35" max="35" width="17.125" style="6" customWidth="1"/>
+    <col min="36" max="36" width="21.5" style="6" customWidth="1"/>
+    <col min="37" max="37" width="24.875" style="6" customWidth="1"/>
+    <col min="38" max="38" width="28.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -952,9 +960,10 @@
       <c r="AH1" s="8"/>
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
-      <c r="AK1" s="1"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -999,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>60</v>
@@ -1049,23 +1058,26 @@
       <c r="AF2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -1174,11 +1186,14 @@
       <c r="AJ3" s="9">
         <v>3</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AK3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
@@ -1225,7 +1240,7 @@
         <v>68</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>39</v>
@@ -1275,37 +1290,40 @@
       <c r="AF4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AG4" s="10" t="s">
-        <v>0</v>
+      <c r="AG4" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="AH4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AK4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="5">
         <v>0</v>
@@ -1355,22 +1373,25 @@
       <c r="AF5" s="5">
         <v>0</v>
       </c>
+      <c r="AG5" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="5">
         <v>0</v>
@@ -1420,22 +1441,25 @@
       <c r="AF6" s="5">
         <v>0</v>
       </c>
+      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>57</v>
       </c>
       <c r="P7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="5">
         <v>0</v>
@@ -1485,22 +1509,25 @@
       <c r="AF7" s="5">
         <v>0</v>
       </c>
+      <c r="AG7" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="5">
         <v>0</v>
@@ -1548,6 +1575,9 @@
         <v>0</v>
       </c>
       <c r="AF8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/Q-签到-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/Q-签到-玩家属性-(框架定义,后端维护).xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="83">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -249,9 +249,6 @@
   </si>
   <si>
     <t>LogicName(string)</t>
-  </si>
-  <si>
-    <t>Group(int)</t>
   </si>
   <si>
     <t>基础属性</t>
@@ -318,6 +315,32 @@
   </si>
   <si>
     <t>Client(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -884,7 +907,7 @@
   <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -924,7 +947,7 @@
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1002,13 +1025,13 @@
         <v>10</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>60</v>
@@ -1044,7 +1067,7 @@
         <v>21</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC2" s="7" t="s">
         <v>22</v>
@@ -1059,7 +1082,7 @@
         <v>25</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="7" t="s">
         <v>26</v>
@@ -1234,13 +1257,13 @@
         <v>38</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="P4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>39</v>
@@ -1276,13 +1299,13 @@
         <v>49</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="10" t="s">
-        <v>63</v>
+      <c r="AD4" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="AE4" s="10" t="s">
         <v>51</v>
@@ -1291,7 +1314,7 @@
         <v>52</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH4" s="10" t="s">
         <v>0</v>
@@ -1311,16 +1334,16 @@
     </row>
     <row r="5" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="P5" s="5">
         <v>0</v>
@@ -1379,16 +1402,16 @@
     </row>
     <row r="6" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P6" s="5">
         <v>0</v>
@@ -1447,13 +1470,13 @@
     </row>
     <row r="7" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>57</v>
@@ -1515,16 +1538,16 @@
     </row>
     <row r="8" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P8" s="5">
         <v>0</v>

--- a/Resource/excel/Q-签到-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/Q-签到-玩家属性-(框架定义,后端维护).xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -341,6 +341,14 @@
       </rPr>
       <t>(int)</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求同步客户端</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request(int)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -904,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL8"/>
+  <dimension ref="A1:AM8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -929,22 +937,22 @@
     <col min="20" max="20" width="17.125" style="6" customWidth="1"/>
     <col min="21" max="21" width="11" style="6" customWidth="1"/>
     <col min="22" max="22" width="12.875" style="6" customWidth="1"/>
-    <col min="23" max="23" width="15" style="6" customWidth="1"/>
-    <col min="24" max="24" width="11" style="6" customWidth="1"/>
-    <col min="25" max="25" width="13.75" style="6" customWidth="1"/>
-    <col min="26" max="27" width="17.125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="12.625" style="6" customWidth="1"/>
-    <col min="29" max="29" width="14.875" style="6" customWidth="1"/>
-    <col min="30" max="31" width="11.5" style="6" customWidth="1"/>
-    <col min="32" max="33" width="10.875" style="6" customWidth="1"/>
-    <col min="34" max="34" width="9.375" style="6" customWidth="1"/>
-    <col min="35" max="35" width="17.125" style="6" customWidth="1"/>
-    <col min="36" max="36" width="21.5" style="6" customWidth="1"/>
-    <col min="37" max="37" width="24.875" style="6" customWidth="1"/>
-    <col min="38" max="38" width="28.75" style="6" customWidth="1"/>
+    <col min="23" max="24" width="15" style="6" customWidth="1"/>
+    <col min="25" max="25" width="11" style="6" customWidth="1"/>
+    <col min="26" max="26" width="13.75" style="6" customWidth="1"/>
+    <col min="27" max="28" width="17.125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="12.625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="14.875" style="6" customWidth="1"/>
+    <col min="31" max="32" width="11.5" style="6" customWidth="1"/>
+    <col min="33" max="34" width="10.875" style="6" customWidth="1"/>
+    <col min="35" max="35" width="9.375" style="6" customWidth="1"/>
+    <col min="36" max="36" width="17.125" style="6" customWidth="1"/>
+    <col min="37" max="37" width="21.5" style="6" customWidth="1"/>
+    <col min="38" max="38" width="24.875" style="6" customWidth="1"/>
+    <col min="39" max="39" width="28.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
         <v>77</v>
@@ -984,9 +992,10 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
       <c r="AK1" s="8"/>
-      <c r="AL1" s="1"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -1054,53 +1063,56 @@
       <c r="W2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -1174,7 +1186,7 @@
         <v>3</v>
       </c>
       <c r="Y3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="9">
         <v>1</v>
@@ -1183,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="AB3" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="9">
         <v>3</v>
@@ -1212,11 +1224,14 @@
       <c r="AK3" s="9">
         <v>3</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AL3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AM3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
@@ -1286,53 +1301,56 @@
       <c r="W4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Z4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AB4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AC4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AD4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AF4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AG4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AH4" s="10" t="s">
-        <v>0</v>
-      </c>
       <c r="AI4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AK4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AK4" s="10" t="s">
+      <c r="AL4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AL4" s="4" t="s">
+      <c r="AM4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:39" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -1379,11 +1397,11 @@
         <v>0</v>
       </c>
       <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5">
         <v>1</v>
       </c>
-      <c r="AB5" s="5">
-        <v>0</v>
-      </c>
       <c r="AC5" s="5">
         <v>0</v>
       </c>
@@ -1399,8 +1417,11 @@
       <c r="AG5" s="5">
         <v>0</v>
       </c>
+      <c r="AH5" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
@@ -1447,11 +1468,11 @@
         <v>0</v>
       </c>
       <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
         <v>1</v>
       </c>
-      <c r="AB6" s="5">
-        <v>0</v>
-      </c>
       <c r="AC6" s="5">
         <v>0</v>
       </c>
@@ -1467,8 +1488,11 @@
       <c r="AG6" s="5">
         <v>0</v>
       </c>
+      <c r="AH6" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:39" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
@@ -1535,8 +1559,11 @@
       <c r="AG7" s="5">
         <v>0</v>
       </c>
+      <c r="AH7" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>75</v>
       </c>
@@ -1601,6 +1628,9 @@
         <v>0</v>
       </c>
       <c r="AG8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5">
         <v>0</v>
       </c>
     </row>
